--- a/DKS-API/Resources/Template/TempP206DataByArticle.xlsx
+++ b/DKS-API/Resources/Template/TempP206DataByArticle.xlsx
@@ -169,7 +169,7 @@
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -201,8 +201,14 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -293,7 +299,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -638,7 +644,7 @@
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
@@ -696,7 +702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>

--- a/DKS-API/Resources/Template/TempP206DataByArticle.xlsx
+++ b/DKS-API/Resources/Template/TempP206DataByArticle.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$R$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Part No</t>
   </si>
@@ -89,75 +89,82 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>&amp;=result.PartNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.PartName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.MaterialNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.MaterialName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.Supplier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.ColorCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.ColorName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.Uom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.MaterialSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.Consumption</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.Purchasing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.Grading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.MaterialStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.SampleLeadTimeEtd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.ProductionLeadTimeEtd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.PurchaseLocation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>&amp;=title.title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.PartNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.PartName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.MaterialNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.MaterialName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.Supplier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.ColorCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.ColorName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.Uom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.MaterialSize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.Consumption</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.Purchasing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.Grading</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.MaterialStatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.SampleLeadTimeEtd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.ProductionLeadTimeEtd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.PurchaseLocation</t>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.Stage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +176,7 @@
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -201,14 +208,8 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -227,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -263,11 +264,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -296,12 +306,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -616,149 +621,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="34.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="90.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" s="9" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q2"/>
+  <autoFilter ref="A2:R3"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
